--- a/excel_template/template_siopel3.xlsx
+++ b/excel_template/template_siopel3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bscuser\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\HB_app_fork\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177FC695-381B-4609-BEA1-5DC3A5BFEF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4AAEAB-EA41-4A60-AF03-016EE688B007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>VIM</t>
   </si>
   <si>
-    <t>Qualu</t>
-  </si>
-  <si>
     <t>CpG_Array</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>NT8</t>
+  </si>
+  <si>
+    <t>PUMA_value</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -719,163 +719,163 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="BF1" s="4" t="s">
         <v>4</v>
@@ -884,22 +884,22 @@
         <v>5</v>
       </c>
       <c r="BH1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.2">
@@ -4647,7 +4647,7 @@
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B21" s="5">
         <v>10.330284987466735</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="22" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4835,27 +4835,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaLengthInSeconds xmlns="b49300fb-5a15-41c5-a699-e56f15cf87c0" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d6f5471d-30bd-463b-83c2-41c4d2d2dcf8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b49300fb-5a15-41c5-a699-e56f15cf87c0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002398FB7092F00C4DB16FA976D26C2BCB" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="17faee3bfba46e922f0b4dffb5482cdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b49300fb-5a15-41c5-a699-e56f15cf87c0" xmlns:ns3="d6f5471d-30bd-463b-83c2-41c4d2d2dcf8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3978c132ee863274e44dfe602b00ed1" ns2:_="" ns3:_="">
     <xsd:import namespace="b49300fb-5a15-41c5-a699-e56f15cf87c0"/>
@@ -5056,10 +5035,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaLengthInSeconds xmlns="b49300fb-5a15-41c5-a699-e56f15cf87c0" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d6f5471d-30bd-463b-83c2-41c4d2d2dcf8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b49300fb-5a15-41c5-a699-e56f15cf87c0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{313A6721-9CCD-4F80-B9F4-149EDF7B2021}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A90D41F-B8D2-4450-B28D-DA8ED656D864}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b49300fb-5a15-41c5-a699-e56f15cf87c0"/>
+    <ds:schemaRef ds:uri="d6f5471d-30bd-463b-83c2-41c4d2d2dcf8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5076,20 +5087,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A90D41F-B8D2-4450-B28D-DA8ED656D864}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{313A6721-9CCD-4F80-B9F4-149EDF7B2021}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b49300fb-5a15-41c5-a699-e56f15cf87c0"/>
-    <ds:schemaRef ds:uri="d6f5471d-30bd-463b-83c2-41c4d2d2dcf8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>